--- a/medicine/Mort/Liste_de_coureurs_cyclistes_morts_en_course/Liste_de_coureurs_cyclistes_morts_en_course.xlsx
+++ b/medicine/Mort/Liste_de_coureurs_cyclistes_morts_en_course/Liste_de_coureurs_cyclistes_morts_en_course.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente les principaux accidents mortels survenus pendant les courses cyclistes. Elle comprend les accidents de cross-country éliminatoire, de cyclisme sur piste, de cyclo-cross et de cyclisme sur route.
-Jusqu'au début des années 2000, le casque n'est pas obligatoire dans le cyclisme professionnel sur route. La mort d'Andrei Kivilev le 12 mars 2003 pendant l'épreuve Paris-Nice déclenche la mise en place de cette obligation[1], effective à partir du 5 mai 2003.
-Selon le rapport du Consumer Product Safety Commission (CPSC) en 2005, les trois sports ayant causé le plus de blessés aux Etats-Unis sont le football américain, le basket et le cyclisme[2]. Néanmoins, juger de la dangerosité relative des sports est un exercice difficile. S'agissant du cyclisme, il arrive que des professionnels et des compétiteurs amateurs meurent dans des accidents impliquant des véhicules motorisés sur la voie publique. Au début du XXe siècle, les accidents mortels sont plus nombreux sur piste que sur route.
-De plus, un nombre croissant de cyclistes meurent d'une crise cardiaque alors qu'ils participent à une course ou à un entraînement[3]. Enfin, certains décès sont imputables au dopage, notamment à la prise d'amphétamines : avant même le cas de Tom Simpson, mort en 1967 dans l'ascension du Ventoux, la question avait été soulevée en 1952 par le journaliste sportif Jean Leulliot[4].
+Jusqu'au début des années 2000, le casque n'est pas obligatoire dans le cyclisme professionnel sur route. La mort d'Andrei Kivilev le 12 mars 2003 pendant l'épreuve Paris-Nice déclenche la mise en place de cette obligation, effective à partir du 5 mai 2003.
+Selon le rapport du Consumer Product Safety Commission (CPSC) en 2005, les trois sports ayant causé le plus de blessés aux Etats-Unis sont le football américain, le basket et le cyclisme. Néanmoins, juger de la dangerosité relative des sports est un exercice difficile. S'agissant du cyclisme, il arrive que des professionnels et des compétiteurs amateurs meurent dans des accidents impliquant des véhicules motorisés sur la voie publique. Au début du XXe siècle, les accidents mortels sont plus nombreux sur piste que sur route.
+De plus, un nombre croissant de cyclistes meurent d'une crise cardiaque alors qu'ils participent à une course ou à un entraînement. Enfin, certains décès sont imputables au dopage, notamment à la prise d'amphétamines : avant même le cas de Tom Simpson, mort en 1967 dans l'ascension du Ventoux, la question avait été soulevée en 1952 par le journaliste sportif Jean Leulliot.
 </t>
         </is>
       </c>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
